--- a/Base de données/Excel/PlanCadre.xlsx
+++ b/Base de données/Excel/PlanCadre.xlsx
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
-  <si>
-    <t>idDevisMinistere</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>codeSpecialisation</t>
   </si>
@@ -88,12 +85,6 @@
   </si>
   <si>
     <t>elementsConnaissance</t>
-  </si>
-  <si>
-    <t>activiteAprentisage</t>
-  </si>
-  <si>
-    <t>environementPhysique</t>
   </si>
   <si>
     <t>ressource</t>
@@ -138,9 +129,6 @@
   </si>
   <si>
     <t>idCompetence</t>
-  </si>
-  <si>
-    <t>PonderationEnHeure</t>
   </si>
   <si>
     <t>016N</t>
@@ -209,6 +197,15 @@
   </si>
   <si>
     <t>ponderationPratique</t>
+  </si>
+  <si>
+    <t>activiteApprentissage</t>
+  </si>
+  <si>
+    <t>environnementPhysique</t>
+  </si>
+  <si>
+    <t>ponderationEnHeure</t>
   </si>
 </sst>
 </file>
@@ -538,31 +535,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -570,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>2000</v>
@@ -585,10 +582,10 @@
         <v>1980</v>
       </c>
       <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -601,29 +598,29 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -631,13 +628,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2007</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -653,50 +650,50 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
         <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -704,10 +701,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -719,19 +716,19 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -748,23 +745,23 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -775,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -789,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -805,20 +802,20 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
